--- a/Reports/ExcelOutput.xlsx
+++ b/Reports/ExcelOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1712" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="42">
   <si>
     <t>BikeName</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Expected Launch : Unrevealed</t>
+  </si>
+  <si>
+    <t>Expected Launch : Nov 2024</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
         <v>36</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="E2" t="s" s="0">
         <v>34</v>
@@ -526,72 +529,72 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C3" t="s" s="0">
         <v>37</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>35</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>35</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s" s="0">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s" s="0">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s" s="0">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s" s="0">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
@@ -605,7 +608,7 @@
         <v>40</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>35</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9">
@@ -619,12 +622,12 @@
         <v>40</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10">
       <c r="D10" t="s" s="0">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/Reports/ExcelOutput.xlsx
+++ b/Reports/ExcelOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2216" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="42">
   <si>
     <t>BikeName</t>
   </si>

--- a/Reports/ExcelOutput.xlsx
+++ b/Reports/ExcelOutput.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2358" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2905" uniqueCount="42">
   <si>
     <t>BikeName</t>
   </si>
